--- a/Employee_Reports21/Nhar Jaradal Cillo Q0494.xlsx
+++ b/Employee_Reports21/Nhar Jaradal Cillo Q0494.xlsx
@@ -550,11 +550,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -598,11 +598,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -646,11 +646,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -694,11 +694,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -742,11 +742,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -790,11 +790,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -838,11 +838,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -885,11 +885,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -931,11 +931,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -977,11 +977,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1023,11 +1023,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1059,11 +1059,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1105,11 +1105,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1151,11 +1151,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
